--- a/Актуальні_ТТ_30.10.2021.xlsx
+++ b/Актуальні_ТТ_30.10.2021.xlsx
@@ -1793,8 +1793,8 @@
   </sheetPr>
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>111</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>99</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>172</v>
       </c>
       <c r="E38" s="18">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="9" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>179</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>158</v>
       </c>
       <c r="E109" s="18">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
@@ -4670,7 +4670,7 @@
         <v>158</v>
       </c>
       <c r="E110" s="18">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F110" s="19" t="s">
         <v>138</v>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="9" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>310</v>
       </c>
@@ -5579,7 +5579,7 @@
     <row r="145" spans="5:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E145" s="11">
         <f>SUBTOTAL(109,Таблица2[Столбец5])</f>
-        <v>7911</v>
+        <v>7919</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
